--- a/medicine/Enfance/Destination_Uruapan/Destination_Uruapan.xlsx
+++ b/medicine/Enfance/Destination_Uruapan/Destination_Uruapan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Destination Uruapan est un roman d'aventures de Philippe Ébly. 
@@ -514,7 +526,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Mise en place de l'intrigue (chapitres 1 et 2)
 Dans le petit aéroport de Champaign aux États-Unis, alors qu'ils attendent une correspondance aérienne pour Chicago, Serge Daspremont et deux frères, Raoul et Marc Forestier, sont les témoins d'un vol de diamants. L'un des voleurs, voulant se débarrasser de ces témoins gênants, se fait passer pour un policier et les invite à monter dans sa voiture. Plus tard, les bandits font boire un puissant narcotique aux jeunes gens, qui s'endorment immédiatement.
@@ -551,17 +565,18 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>En France
-1971 - Hachette, Bibliothèque verte, cartonné. Texte original. Illustré par Yvon Le Gall.
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1971 - Hachette, Bibliothèque verte, cartonné. Texte original. Illustré par Yvon Le Gall.
 1978 - Hachette, Bibliothèque verte, cartonné. Texte original. Illustré par Yvon Le Gall.
 1981 - Hachette, Bibliothèque verte, cartonné. Texte original. Illustré par Yvon Le Gall.
 1983 - Hachette, Bibliothèque verte, cartonné (série hachurée). Texte original. Illustré par Yvon Le Gall.
 1988 - Hachette, Bibliothèque verte souple. Texte révisé. Couverture de Richard Martens.
-1995 - Hachette, Bibliothèque verte, poche. Texte révisé. Couverture d'Erik Juszezak.
-À l'étranger
-1975 - Asahi (japonais : Uruapan ni shinro o toru - Trouver la route d'Uruapan). Traduction japonaise de Shigeru Oikawa.
-1976 - Kapelusz Colección Iridium (espagnol : Destino Uruapan - Destination Uruapan). Illustré par Yvon Le Gall.
-1978 - Herold-Spectrum, München (allemand : Weit war der Weg mit dir, Indio - Longue fut la route avec toi, l'Indien)</t>
+1995 - Hachette, Bibliothèque verte, poche. Texte révisé. Couverture d'Erik Juszezak.</t>
         </is>
       </c>
     </row>
@@ -586,10 +601,50 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Les différentes éditions</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>À l'étranger</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1975 - Asahi (japonais : Uruapan ni shinro o toru - Trouver la route d'Uruapan). Traduction japonaise de Shigeru Oikawa.
+1976 - Kapelusz Colección Iridium (espagnol : Destino Uruapan - Destination Uruapan). Illustré par Yvon Le Gall.
+1978 - Herold-Spectrum, München (allemand : Weit war der Weg mit dir, Indio - Longue fut la route avec toi, l'Indien)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Destination_Uruapan</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Destination_Uruapan</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Autour du roman</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Dans le roman, le héros Serge Daspremont rencontre pour la première fois Xolotl, un jeune indien orphelin, qu'il fera adopter par son père. Ce n'est que dans le roman suivant (Celui qui revenait de loin) qu'ils seront rejoints par Thibaut de Châlus pour former le trio des « Conquérants de l'impossible ».
 Destination Uruapan est un roman de mondes perdus ; l'aspect fantastique ou SF en est absent.
